--- a/Examples/testovaya_vipiska_po_karte_dlinnaya_primer_konvertatsii.xlsx
+++ b/Examples/testovaya_vipiska_po_karte_dlinnaya_primer_konvertatsii.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43823</v>
+        <v>43823.71875</v>
       </c>
       <c r="B2" s="2">
         <v>43824</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43814</v>
+        <v>43814.71875</v>
       </c>
       <c r="B3" s="2">
         <v>43815</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43696</v>
+        <v>43696.71875</v>
       </c>
       <c r="B4" s="2">
         <v>43697</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43695</v>
+        <v>43695.71875</v>
       </c>
       <c r="B5" s="2">
         <v>43696</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43693</v>
+        <v>43693.71875</v>
       </c>
       <c r="B6" s="2">
         <v>43694</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43593</v>
+        <v>43593.71875</v>
       </c>
       <c r="B7" s="2">
         <v>43624</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43563</v>
+        <v>43563.71875</v>
       </c>
       <c r="B8" s="2">
         <v>43593</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43672</v>
+        <v>43672.71875</v>
       </c>
       <c r="B9" s="2">
         <v>43593</v>

--- a/Examples/testovaya_vipiska_po_karte_dlinnaya_primer_konvertatsii.xlsx
+++ b/Examples/testovaya_vipiska_po_karte_dlinnaya_primer_konvertatsii.xlsx
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy HH:MM"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -635,10 +635,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43593.71875</v>
+        <v>43682.71875</v>
       </c>
       <c r="B7" s="2">
-        <v>43624</v>
+        <v>43683</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43563.71875</v>
+        <v>43681.71875</v>
       </c>
       <c r="B8" s="2">
-        <v>43593</v>
+        <v>43682</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -684,7 +684,7 @@
         <v>43672.71875</v>
       </c>
       <c r="B9" s="2">
-        <v>43593</v>
+        <v>43682</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
